--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.095195666666667</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.285587</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.8546922300706357</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P2">
-        <v>0.8546922300706358</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q2">
-        <v>14.948420716922</v>
+        <v>0.4424129606416667</v>
       </c>
       <c r="R2">
-        <v>134.535786452298</v>
+        <v>3.981716645775</v>
       </c>
       <c r="S2">
-        <v>0.08250497265634586</v>
+        <v>0.001027177957553173</v>
       </c>
       <c r="T2">
-        <v>0.08250497265634586</v>
+        <v>0.001027177957553172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.356208</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N3">
-        <v>1.068624</v>
+        <v>6.285587</v>
       </c>
       <c r="O3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q3">
-        <v>2.541408008544</v>
+        <v>12.22743829412233</v>
       </c>
       <c r="R3">
-        <v>22.872672076896</v>
+        <v>110.046944647101</v>
       </c>
       <c r="S3">
-        <v>0.01402681943626187</v>
+        <v>0.02838921146172485</v>
       </c>
       <c r="T3">
-        <v>0.01402681943626187</v>
+        <v>0.02838921146172484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.50798033333333</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>52.52394099999999</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.2368839813846793</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.2368839813846793</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.095195666666667</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N4">
-        <v>6.285587</v>
+        <v>1.554291</v>
       </c>
       <c r="O4">
-        <v>0.8546922300706357</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P4">
-        <v>0.8546922300706358</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q4">
-        <v>36.68264452648522</v>
+        <v>3.023583524277</v>
       </c>
       <c r="R4">
-        <v>330.143800738367</v>
+        <v>27.212251718493</v>
       </c>
       <c r="S4">
-        <v>0.2024628983176825</v>
+        <v>0.007020043771895254</v>
       </c>
       <c r="T4">
-        <v>0.2024628983176825</v>
+        <v>0.007020043771895253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.356208</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>1.068624</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.1453077699293643</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P5">
-        <v>0.1453077699293643</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q5">
-        <v>6.236482658576</v>
+        <v>1.327250809102778</v>
       </c>
       <c r="R5">
-        <v>56.12834392718399</v>
+        <v>11.945257281925</v>
       </c>
       <c r="S5">
-        <v>0.0344210830669968</v>
+        <v>0.00308156156473728</v>
       </c>
       <c r="T5">
-        <v>0.0344210830669968</v>
+        <v>0.00308156156473728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.26691733333334</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>147.800752</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.666584226522713</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.666584226522713</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>6.285587</v>
       </c>
       <c r="O6">
-        <v>0.8546922300706357</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P6">
-        <v>0.8546922300706358</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q6">
-        <v>103.2238317068249</v>
+        <v>36.68264452648523</v>
       </c>
       <c r="R6">
-        <v>929.0144853614241</v>
+        <v>330.143800738367</v>
       </c>
       <c r="S6">
-        <v>0.5697243590966073</v>
+        <v>0.08516839974062794</v>
       </c>
       <c r="T6">
-        <v>0.5697243590966073</v>
+        <v>0.08516839974062793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.26691733333334</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>147.800752</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.666584226522713</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.666584226522713</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.356208</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N7">
-        <v>1.068624</v>
+        <v>1.554291</v>
       </c>
       <c r="O7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q7">
-        <v>17.549270089472</v>
+        <v>9.070832086758999</v>
       </c>
       <c r="R7">
-        <v>157.943430805248</v>
+        <v>81.63748878083101</v>
       </c>
       <c r="S7">
-        <v>0.09685986742610563</v>
+        <v>0.02106032057169208</v>
       </c>
       <c r="T7">
-        <v>0.09685986742610563</v>
+        <v>0.02106032057169208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>136.8238143333333</v>
+      </c>
+      <c r="H8">
+        <v>410.471443</v>
+      </c>
+      <c r="I8">
+        <v>0.8542532849317694</v>
+      </c>
+      <c r="J8">
+        <v>0.8542532849317694</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.227425</v>
+      </c>
+      <c r="O8">
+        <v>0.028190957994264</v>
+      </c>
+      <c r="P8">
+        <v>0.02819095799426401</v>
+      </c>
+      <c r="Q8">
+        <v>10.37238532491944</v>
+      </c>
+      <c r="R8">
+        <v>93.351467924275</v>
+      </c>
+      <c r="S8">
+        <v>0.02408221847197355</v>
+      </c>
+      <c r="T8">
+        <v>0.02408221847197355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>136.8238143333333</v>
+      </c>
+      <c r="H9">
+        <v>410.471443</v>
+      </c>
+      <c r="I9">
+        <v>0.8542532849317694</v>
+      </c>
+      <c r="J9">
+        <v>0.8542532849317694</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.285587</v>
+      </c>
+      <c r="O9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="P9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="Q9">
+        <v>286.6726628880045</v>
+      </c>
+      <c r="R9">
+        <v>2580.053965992041</v>
+      </c>
+      <c r="S9">
+        <v>0.6655859266069994</v>
+      </c>
+      <c r="T9">
+        <v>0.6655859266069994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>136.8238143333333</v>
+      </c>
+      <c r="H10">
+        <v>410.471443</v>
+      </c>
+      <c r="I10">
+        <v>0.8542532849317694</v>
+      </c>
+      <c r="J10">
+        <v>0.8542532849317694</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5180969999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.554291</v>
+      </c>
+      <c r="O10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="P10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="Q10">
+        <v>70.88800773465699</v>
+      </c>
+      <c r="R10">
+        <v>637.9920696119129</v>
+      </c>
+      <c r="S10">
+        <v>0.1645851398527965</v>
+      </c>
+      <c r="T10">
+        <v>0.1645851398527965</v>
       </c>
     </row>
   </sheetData>
